--- a/Code/Results/Cases/Case_4_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.07770517868484</v>
+        <v>10.71451415296707</v>
       </c>
       <c r="C2">
-        <v>7.906829716848063</v>
+        <v>9.502539268208498</v>
       </c>
       <c r="D2">
-        <v>7.062998258211774</v>
+        <v>5.99765845886862</v>
       </c>
       <c r="E2">
-        <v>7.874775478150235</v>
+        <v>12.82782147016723</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.54115890013925</v>
+        <v>33.85433203422809</v>
       </c>
       <c r="H2">
-        <v>9.626450486097344</v>
+        <v>15.66675799458318</v>
       </c>
       <c r="I2">
-        <v>15.83864552855882</v>
+        <v>24.99322015531614</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.38397880314998</v>
+        <v>8.117205471385432</v>
       </c>
       <c r="L2">
-        <v>6.35587111069366</v>
+        <v>10.14611150296172</v>
       </c>
       <c r="M2">
-        <v>9.321014924441091</v>
+        <v>13.40096278435721</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.88530213689751</v>
+        <v>24.50704399278917</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.22979111579084</v>
+        <v>10.45107117536305</v>
       </c>
       <c r="C3">
-        <v>7.821714146532756</v>
+        <v>9.47744563642966</v>
       </c>
       <c r="D3">
-        <v>6.578288873770243</v>
+        <v>5.88082069906799</v>
       </c>
       <c r="E3">
-        <v>7.903078747016306</v>
+        <v>12.86047377233772</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>24.38403174703378</v>
+        <v>33.95102876744952</v>
       </c>
       <c r="H3">
-        <v>9.700550106456735</v>
+        <v>15.71559616277484</v>
       </c>
       <c r="I3">
-        <v>16.00829237504617</v>
+        <v>25.0887774979617</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.80745483759176</v>
+        <v>7.913554400416784</v>
       </c>
       <c r="L3">
-        <v>6.274928207896624</v>
+        <v>10.15396045424003</v>
       </c>
       <c r="M3">
-        <v>8.976411742434451</v>
+        <v>13.36068383434054</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.9437041513305</v>
+        <v>24.58836856522416</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.67856309731666</v>
+        <v>10.28736439765946</v>
       </c>
       <c r="C4">
-        <v>7.769293754044488</v>
+        <v>9.462003878236246</v>
       </c>
       <c r="D4">
-        <v>6.27212079182352</v>
+        <v>5.80962127721272</v>
       </c>
       <c r="E4">
-        <v>7.924254289520569</v>
+        <v>12.88223737377831</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>24.31279416308542</v>
+        <v>34.01966845525153</v>
       </c>
       <c r="H4">
-        <v>9.751395544115809</v>
+        <v>15.74786791623343</v>
       </c>
       <c r="I4">
-        <v>16.12278736810974</v>
+        <v>25.15172439821565</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.43675722512346</v>
+        <v>7.786700132948081</v>
       </c>
       <c r="L4">
-        <v>6.227533690873066</v>
+        <v>10.16015981619323</v>
       </c>
       <c r="M4">
-        <v>8.76102597019613</v>
+        <v>13.33766270701587</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.99173306479058</v>
+        <v>24.64298669115745</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.44621798671443</v>
+        <v>10.22025858568139</v>
       </c>
       <c r="C5">
-        <v>7.747900317481185</v>
+        <v>9.455704253354872</v>
       </c>
       <c r="D5">
-        <v>6.159795541040845</v>
+        <v>5.780787517703414</v>
       </c>
       <c r="E5">
-        <v>7.933816960322501</v>
+        <v>12.89153778874193</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.28991686370115</v>
+        <v>34.04996256265508</v>
       </c>
       <c r="H5">
-        <v>9.773419711946575</v>
+        <v>15.76159370087677</v>
       </c>
       <c r="I5">
-        <v>16.17195368610221</v>
+        <v>25.17845050126894</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.28157871632833</v>
+        <v>7.734623473486151</v>
       </c>
       <c r="L5">
-        <v>6.208809728321226</v>
+        <v>10.16303370241941</v>
       </c>
       <c r="M5">
-        <v>8.672427301100448</v>
+        <v>13.32871789734759</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.0142520882021</v>
+        <v>24.66642064083018</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.40717082395186</v>
+        <v>10.20909483884275</v>
       </c>
       <c r="C6">
-        <v>7.744346285087158</v>
+        <v>9.454657830331282</v>
       </c>
       <c r="D6">
-        <v>6.140989709010285</v>
+        <v>5.776011921629903</v>
       </c>
       <c r="E6">
-        <v>7.935460594727246</v>
+        <v>12.89310819096544</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.28648374450519</v>
+        <v>34.05513294165553</v>
       </c>
       <c r="H6">
-        <v>9.777154433083462</v>
+        <v>15.76390757902925</v>
       </c>
       <c r="I6">
-        <v>16.18026672950022</v>
+        <v>25.18295325949989</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.25556570535356</v>
+        <v>7.72595528815391</v>
       </c>
       <c r="L6">
-        <v>6.205736515293121</v>
+        <v>10.16353191815374</v>
       </c>
       <c r="M6">
-        <v>8.657669579641821</v>
+        <v>13.32725916151075</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.018166057536</v>
+        <v>24.67038285533577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.6754608702131</v>
+        <v>10.28646084915843</v>
       </c>
       <c r="C7">
-        <v>7.769005351935218</v>
+        <v>9.461918945454183</v>
       </c>
       <c r="D7">
-        <v>6.27061635063305</v>
+        <v>5.809231624190124</v>
       </c>
       <c r="E7">
-        <v>7.92437950346682</v>
+        <v>12.88236105457409</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>24.31246098752167</v>
+        <v>34.02006761729174</v>
       </c>
       <c r="H7">
-        <v>9.751687341050973</v>
+        <v>15.74805069939785</v>
       </c>
       <c r="I7">
-        <v>16.12344039857602</v>
+        <v>25.15208048434005</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.43468097315466</v>
+        <v>7.785999258447772</v>
       </c>
       <c r="L7">
-        <v>6.227278772878471</v>
+        <v>10.16019716632636</v>
       </c>
       <c r="M7">
-        <v>8.759834268760965</v>
+        <v>13.33754029866327</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.99202498097158</v>
+        <v>24.64329796731559</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.79168326748802</v>
+        <v>10.62414073763918</v>
       </c>
       <c r="C8">
-        <v>7.877519791020136</v>
+        <v>9.493895041430257</v>
       </c>
       <c r="D8">
-        <v>6.899397845347628</v>
+        <v>5.95728764430841</v>
       </c>
       <c r="E8">
-        <v>7.883733372348506</v>
+        <v>12.83872424648675</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>24.48163123321182</v>
+        <v>33.88574524791883</v>
       </c>
       <c r="H8">
-        <v>9.650865054149127</v>
+        <v>15.68312329369101</v>
       </c>
       <c r="I8">
-        <v>15.89494020129417</v>
+        <v>25.02528114733049</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.1887070691399</v>
+        <v>8.047405245199259</v>
       </c>
       <c r="L8">
-        <v>6.327490091955119</v>
+        <v>10.14853174449693</v>
       </c>
       <c r="M8">
-        <v>9.203056782711764</v>
+        <v>13.38672358105632</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.90284460072719</v>
+        <v>24.53411164542691</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.73889120512423</v>
+        <v>11.26683569241673</v>
       </c>
       <c r="C9">
-        <v>8.088707922275384</v>
+        <v>9.556259359539879</v>
       </c>
       <c r="D9">
-        <v>8.015461129027351</v>
+        <v>6.249963555851145</v>
       </c>
       <c r="E9">
-        <v>7.835129704351401</v>
+        <v>12.76674512083656</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.02145420670781</v>
+        <v>33.69618503312819</v>
       </c>
       <c r="H9">
-        <v>9.497508054997922</v>
+        <v>15.57392067024147</v>
       </c>
       <c r="I9">
-        <v>15.53310980559296</v>
+        <v>24.81054603744043</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.53190234126324</v>
+        <v>8.542636793309521</v>
       </c>
       <c r="L9">
-        <v>6.541796534075424</v>
+        <v>10.13657947723817</v>
       </c>
       <c r="M9">
-        <v>10.03711854308098</v>
+        <v>13.4964462124835</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.82967093249881</v>
+        <v>24.35722545839207</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.02404117100937</v>
+        <v>11.72214722417597</v>
       </c>
       <c r="C10">
-        <v>8.242457783275356</v>
+        <v>9.601778924946929</v>
       </c>
       <c r="D10">
-        <v>8.755441947873077</v>
+        <v>6.463893772967144</v>
       </c>
       <c r="E10">
-        <v>7.819742373435848</v>
+        <v>12.72212788165073</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.55431011145027</v>
+        <v>33.60232375869845</v>
       </c>
       <c r="H10">
-        <v>9.414679164122939</v>
+        <v>15.5047219564316</v>
       </c>
       <c r="I10">
-        <v>15.32620104755955</v>
+        <v>24.67346170165577</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.43340792378537</v>
+        <v>8.892154333367783</v>
       </c>
       <c r="L10">
-        <v>6.709384399135419</v>
+        <v>10.13441882671696</v>
       </c>
       <c r="M10">
-        <v>10.66991928263574</v>
+        <v>13.58473485060826</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.84504216471986</v>
+        <v>24.25003987080702</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.57757567508926</v>
+        <v>11.92467332311905</v>
       </c>
       <c r="C11">
-        <v>8.312014883886414</v>
+        <v>9.622402155191653</v>
       </c>
       <c r="D11">
-        <v>9.075114683512481</v>
+        <v>6.560473236086461</v>
       </c>
       <c r="E11">
-        <v>7.817454074588566</v>
+        <v>12.70362070262339</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.8279338751742</v>
+        <v>33.56955380461488</v>
       </c>
       <c r="H11">
-        <v>9.384133124259609</v>
+        <v>15.47563443187629</v>
       </c>
       <c r="I11">
-        <v>15.24637976088967</v>
+        <v>24.6155907008053</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.82466273103928</v>
+        <v>9.047347617411287</v>
       </c>
       <c r="L11">
-        <v>6.787665896606714</v>
+        <v>10.13486382090444</v>
       </c>
       <c r="M11">
-        <v>11.01004275151487</v>
+        <v>13.62647075606706</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.86858885805096</v>
+        <v>24.20623893574522</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.78275564503619</v>
+        <v>12.00063298514309</v>
       </c>
       <c r="C12">
-        <v>8.338292768022393</v>
+        <v>9.630197821203113</v>
       </c>
       <c r="D12">
-        <v>9.193762924764474</v>
+        <v>6.596899751029496</v>
       </c>
       <c r="E12">
-        <v>7.817290077017605</v>
+        <v>12.69686947506925</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.936145739322</v>
+        <v>33.55857684787498</v>
       </c>
       <c r="H12">
-        <v>9.373649689925321</v>
+        <v>15.46496343902323</v>
       </c>
       <c r="I12">
-        <v>15.21834559841506</v>
+        <v>24.59432228997646</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.97009560306883</v>
+        <v>9.105516059726796</v>
       </c>
       <c r="L12">
-        <v>6.817589452568453</v>
+        <v>10.13523668793862</v>
       </c>
       <c r="M12">
-        <v>11.13634333274238</v>
+        <v>13.64249266423032</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.88001262094243</v>
+        <v>24.19036690458671</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.73876291878664</v>
+        <v>11.98430736991542</v>
       </c>
       <c r="C13">
-        <v>8.332636205444357</v>
+        <v>9.628519532957098</v>
       </c>
       <c r="D13">
-        <v>9.168316337304523</v>
+        <v>6.589061755265938</v>
       </c>
       <c r="E13">
-        <v>7.817293749369974</v>
+        <v>12.69831204535349</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.91263443070721</v>
+        <v>33.56087716317725</v>
       </c>
       <c r="H13">
-        <v>9.375858334219487</v>
+        <v>15.46724633743656</v>
       </c>
       <c r="I13">
-        <v>15.22428350021071</v>
+        <v>24.59887407969504</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.93889548968296</v>
+        <v>9.093015919074009</v>
       </c>
       <c r="L13">
-        <v>6.81113264333658</v>
+        <v>10.13514731182259</v>
       </c>
       <c r="M13">
-        <v>11.10925312652706</v>
+        <v>13.63903253196421</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.87743879174068</v>
+        <v>24.19375343385417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.5945445389158</v>
+        <v>11.93093764064093</v>
       </c>
       <c r="C14">
-        <v>8.314178056781548</v>
+        <v>9.623043798599799</v>
       </c>
       <c r="D14">
-        <v>9.084923955124454</v>
+        <v>6.56347321455568</v>
       </c>
       <c r="E14">
-        <v>7.817426358048198</v>
+        <v>12.70306012524257</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>25.83674385974571</v>
+        <v>33.56862199404774</v>
       </c>
       <c r="H14">
-        <v>9.383248584877204</v>
+        <v>15.4747496324399</v>
       </c>
       <c r="I14">
-        <v>15.24402862758788</v>
+        <v>24.61382798437837</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.83668229806333</v>
+        <v>9.05214547963929</v>
       </c>
       <c r="L14">
-        <v>6.79012219194227</v>
+        <v>10.13489040712152</v>
       </c>
       <c r="M14">
-        <v>11.02048355884529</v>
+        <v>13.62778458170696</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.86947772719458</v>
+        <v>24.20491880794664</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.50563069069221</v>
+        <v>11.89814971657659</v>
       </c>
       <c r="C15">
-        <v>8.302863664816911</v>
+        <v>9.619687887498548</v>
       </c>
       <c r="D15">
-        <v>9.033531499216398</v>
+        <v>6.547779331500187</v>
       </c>
       <c r="E15">
-        <v>7.817599823719965</v>
+        <v>12.70600192698167</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>25.79086016396982</v>
+        <v>33.57355258168372</v>
       </c>
       <c r="H15">
-        <v>9.387918224126116</v>
+        <v>15.47939039162454</v>
       </c>
       <c r="I15">
-        <v>15.25641277405781</v>
+        <v>24.62307183734192</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.7737182932016</v>
+        <v>9.027031540151253</v>
       </c>
       <c r="L15">
-        <v>6.777288744636868</v>
+        <v>10.13475962874624</v>
       </c>
       <c r="M15">
-        <v>10.96578476832218</v>
+        <v>13.62092293799342</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.86493160073906</v>
+        <v>24.21185100346289</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.98724409710271</v>
+        <v>11.70881291125839</v>
       </c>
       <c r="C16">
-        <v>8.23790374795132</v>
+        <v>9.600429303583565</v>
       </c>
       <c r="D16">
-        <v>8.734212276494354</v>
+        <v>6.457563763239273</v>
       </c>
       <c r="E16">
-        <v>7.819988857567077</v>
+        <v>12.72337335364038</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.53706595917663</v>
+        <v>33.60466554673752</v>
       </c>
       <c r="H16">
-        <v>9.416823845223005</v>
+        <v>15.50667100990107</v>
       </c>
       <c r="I16">
-        <v>15.33171677875184</v>
+        <v>24.67733408870834</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.40745764993703</v>
+        <v>8.881930917909271</v>
       </c>
       <c r="L16">
-        <v>6.704308464601033</v>
+        <v>10.1344183968669</v>
       </c>
       <c r="M16">
-        <v>10.64734153174311</v>
+        <v>13.58203822025929</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.8438472826372</v>
+        <v>24.25300226299565</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.6612954105862</v>
+        <v>11.59143067926069</v>
       </c>
       <c r="C17">
-        <v>8.197949573132242</v>
+        <v>9.58859200126277</v>
       </c>
       <c r="D17">
-        <v>8.546271433184685</v>
+        <v>6.402001270673526</v>
       </c>
       <c r="E17">
-        <v>7.822678871383472</v>
+        <v>12.73448828178788</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.38944998361335</v>
+        <v>33.62629871731468</v>
       </c>
       <c r="H17">
-        <v>9.436423809184475</v>
+        <v>15.52401922498223</v>
       </c>
       <c r="I17">
-        <v>15.38167059244964</v>
+        <v>24.7117724151039</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.17792717798823</v>
+        <v>8.791903031297062</v>
       </c>
       <c r="L17">
-        <v>6.660051137607356</v>
+        <v>10.13457411279271</v>
       </c>
       <c r="M17">
-        <v>10.45496911619003</v>
+        <v>13.55858043247896</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.8352428985455</v>
+        <v>24.27951821361841</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.47088984555431</v>
+        <v>11.52348669125588</v>
       </c>
       <c r="C18">
-        <v>8.17493315530888</v>
+        <v>9.581775717221415</v>
       </c>
       <c r="D18">
-        <v>8.436575598694084</v>
+        <v>6.369975938312216</v>
       </c>
       <c r="E18">
-        <v>7.824668044118052</v>
+        <v>12.74104974105211</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.30747898195097</v>
+        <v>33.63967578447289</v>
       </c>
       <c r="H18">
-        <v>9.448364960536999</v>
+        <v>15.53422254418245</v>
       </c>
       <c r="I18">
-        <v>15.41174030881068</v>
+        <v>24.73200295627091</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.04413400207857</v>
+        <v>8.739766192821076</v>
       </c>
       <c r="L18">
-        <v>6.634788804057321</v>
+        <v>10.13479813896405</v>
       </c>
       <c r="M18">
-        <v>10.3676490561479</v>
+        <v>13.54523673067968</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.8318444802258</v>
+        <v>24.29523610676557</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.40591768178975</v>
+        <v>11.50041064648918</v>
       </c>
       <c r="C19">
-        <v>8.167134248796671</v>
+        <v>9.57946656023012</v>
       </c>
       <c r="D19">
-        <v>8.399159180198108</v>
+        <v>6.359122408797297</v>
       </c>
       <c r="E19">
-        <v>7.825416691881797</v>
+        <v>12.74330027758192</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.28022537319606</v>
+        <v>33.64436533098557</v>
       </c>
       <c r="H19">
-        <v>9.452521001348032</v>
+        <v>15.53771587275448</v>
       </c>
       <c r="I19">
-        <v>15.42214712913064</v>
+        <v>24.73892522382552</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.9985300227069</v>
+        <v>8.722054238060093</v>
       </c>
       <c r="L19">
-        <v>6.626269044402025</v>
+        <v>10.13489711268802</v>
       </c>
       <c r="M19">
-        <v>10.33797615691859</v>
+        <v>13.54074456669628</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.83095628538476</v>
+        <v>24.30063801300617</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.69629602097598</v>
+        <v>11.60397113728186</v>
       </c>
       <c r="C20">
-        <v>8.202206521689401</v>
+        <v>9.589852920923876</v>
       </c>
       <c r="D20">
-        <v>8.566443133560393</v>
+        <v>6.407923249085143</v>
       </c>
       <c r="E20">
-        <v>7.822346594707659</v>
+        <v>12.73328764710895</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.40485949470441</v>
+        <v>33.6238991027281</v>
       </c>
       <c r="H20">
-        <v>9.434267837399309</v>
+        <v>15.52214918279021</v>
       </c>
       <c r="I20">
-        <v>15.37621352930975</v>
+        <v>24.70806266284489</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.20254477070358</v>
+        <v>8.8015238105819</v>
       </c>
       <c r="L20">
-        <v>6.664742501150951</v>
+        <v>10.13454362698016</v>
       </c>
       <c r="M20">
-        <v>10.47107835324788</v>
+        <v>13.56106223737278</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.83599745040979</v>
+        <v>24.27664724143407</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.63702492301172</v>
+        <v>11.94663404619573</v>
       </c>
       <c r="C21">
-        <v>8.319601391105502</v>
+        <v>9.624652546637989</v>
       </c>
       <c r="D21">
-        <v>9.109483325399678</v>
+        <v>6.570993459220969</v>
       </c>
       <c r="E21">
-        <v>7.817368139995261</v>
+        <v>12.70165852537163</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>25.85890924745106</v>
+        <v>33.56630824347764</v>
       </c>
       <c r="H21">
-        <v>9.381048001974719</v>
+        <v>15.47253640196326</v>
       </c>
       <c r="I21">
-        <v>15.23816838116674</v>
+        <v>24.6094181213997</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.86677888913555</v>
+        <v>9.0641667982178</v>
       </c>
       <c r="L21">
-        <v>6.796285980252405</v>
+        <v>10.13496032819704</v>
       </c>
       <c r="M21">
-        <v>11.04662501560731</v>
+        <v>13.63108254764946</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.87174703461217</v>
+        <v>24.20161986636775</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.22603493286598</v>
+        <v>12.16628502105826</v>
       </c>
       <c r="C22">
-        <v>8.395962472819168</v>
+        <v>9.647314206765445</v>
       </c>
       <c r="D22">
-        <v>9.450389630793069</v>
+        <v>6.676701163745363</v>
       </c>
       <c r="E22">
-        <v>7.818221179614913</v>
+        <v>12.68248515252204</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.18248680019805</v>
+        <v>33.53701952347284</v>
       </c>
       <c r="H22">
-        <v>9.352611285768496</v>
+        <v>15.44211561584381</v>
       </c>
       <c r="I22">
-        <v>15.16079580405525</v>
+        <v>24.54871432119487</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.28499808734398</v>
+        <v>9.232301202636052</v>
       </c>
       <c r="L22">
-        <v>6.88388340786203</v>
+        <v>10.13642331017281</v>
       </c>
       <c r="M22">
-        <v>11.40960881395855</v>
+        <v>13.67810794413598</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.90978333182751</v>
+        <v>24.15675001298257</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91401747540528</v>
+        <v>12.04946862384286</v>
       </c>
       <c r="C23">
-        <v>8.3552423645303</v>
+        <v>9.635227360106033</v>
       </c>
       <c r="D23">
-        <v>9.26971178295322</v>
+        <v>6.620374998583327</v>
       </c>
       <c r="E23">
-        <v>7.817381770579878</v>
+        <v>12.69258136188</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.00730151244153</v>
+        <v>33.55188607418929</v>
       </c>
       <c r="H23">
-        <v>9.367187981582589</v>
+        <v>15.45816840759243</v>
       </c>
       <c r="I23">
-        <v>15.20086846283285</v>
+        <v>24.58076830625209</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.06324461085334</v>
+        <v>9.142902911767301</v>
       </c>
       <c r="L23">
-        <v>6.836986744968002</v>
+        <v>10.13553388684621</v>
       </c>
       <c r="M23">
-        <v>11.2172050408639</v>
+        <v>13.6528969978868</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.88809846071098</v>
+        <v>24.18031635701557</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.68048163374912</v>
+        <v>11.5983030215836</v>
       </c>
       <c r="C24">
-        <v>8.200282098735821</v>
+        <v>9.58928289284172</v>
       </c>
       <c r="D24">
-        <v>8.557328637608986</v>
+        <v>6.405246174126815</v>
       </c>
       <c r="E24">
-        <v>7.822495440134225</v>
+        <v>12.73382992032782</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.39788384449596</v>
+        <v>33.6249810412165</v>
       </c>
       <c r="H24">
-        <v>9.435240460751761</v>
+        <v>15.52299391366859</v>
       </c>
       <c r="I24">
-        <v>15.37867647090513</v>
+        <v>24.70973849781391</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.19142086519643</v>
+        <v>8.797175431481442</v>
       </c>
       <c r="L24">
-        <v>6.662620968378952</v>
+        <v>10.13455699058396</v>
       </c>
       <c r="M24">
-        <v>10.46379747938657</v>
+        <v>13.55993976886982</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.8356515043287</v>
+        <v>24.27794373307689</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.23781448895813</v>
+        <v>11.09559397678425</v>
       </c>
       <c r="C25">
-        <v>8.031793970686069</v>
+        <v>9.539434035611546</v>
       </c>
       <c r="D25">
-        <v>7.727718089884057</v>
+        <v>6.170802727565141</v>
       </c>
       <c r="E25">
-        <v>7.844809336778671</v>
+        <v>12.78476430059899</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.85210085916912</v>
+        <v>33.73951749984511</v>
       </c>
       <c r="H25">
-        <v>9.533966829776487</v>
+        <v>15.60152447273358</v>
       </c>
       <c r="I25">
-        <v>15.62113167418098</v>
+        <v>24.86500606859686</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.18336953183501</v>
+        <v>8.410927142508241</v>
       </c>
       <c r="L25">
-        <v>6.481987014585394</v>
+        <v>10.13864712299851</v>
       </c>
       <c r="M25">
-        <v>9.815880028459167</v>
+        <v>13.46538391806804</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.83784561099804</v>
+        <v>24.40108414001183</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.71451415296707</v>
+        <v>13.07770517868489</v>
       </c>
       <c r="C2">
-        <v>9.502539268208498</v>
+        <v>7.906829716847941</v>
       </c>
       <c r="D2">
-        <v>5.99765845886862</v>
+        <v>7.062998258211787</v>
       </c>
       <c r="E2">
-        <v>12.82782147016723</v>
+        <v>7.874775478150191</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>33.85433203422809</v>
+        <v>24.54115890013901</v>
       </c>
       <c r="H2">
-        <v>15.66675799458318</v>
+        <v>9.626450486097278</v>
       </c>
       <c r="I2">
-        <v>24.99322015531614</v>
+        <v>15.83864552855868</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.117205471385432</v>
+        <v>11.38397880315</v>
       </c>
       <c r="L2">
-        <v>10.14611150296172</v>
+        <v>6.355871110693615</v>
       </c>
       <c r="M2">
-        <v>13.40096278435721</v>
+        <v>9.321014924441066</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.50704399278917</v>
+        <v>15.88530213689737</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.45107117536305</v>
+        <v>12.22979111579089</v>
       </c>
       <c r="C3">
-        <v>9.47744563642966</v>
+        <v>7.821714146532867</v>
       </c>
       <c r="D3">
-        <v>5.88082069906799</v>
+        <v>6.578288873770274</v>
       </c>
       <c r="E3">
-        <v>12.86047377233772</v>
+        <v>7.903078747016318</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.95102876744952</v>
+        <v>24.3840317470336</v>
       </c>
       <c r="H3">
-        <v>15.71559616277484</v>
+        <v>9.700550106456619</v>
       </c>
       <c r="I3">
-        <v>25.0887774979617</v>
+        <v>16.00829237504606</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.913554400416784</v>
+        <v>10.80745483759182</v>
       </c>
       <c r="L3">
-        <v>10.15396045424003</v>
+        <v>6.274928207896606</v>
       </c>
       <c r="M3">
-        <v>13.36068383434054</v>
+        <v>8.976411742434422</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.58836856522416</v>
+        <v>15.94370415133034</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.28736439765946</v>
+        <v>11.67856309731666</v>
       </c>
       <c r="C4">
-        <v>9.462003878236246</v>
+        <v>7.769293754044621</v>
       </c>
       <c r="D4">
-        <v>5.80962127721272</v>
+        <v>6.272120791823522</v>
       </c>
       <c r="E4">
-        <v>12.88223737377831</v>
+        <v>7.924254289520624</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.01966845525153</v>
+        <v>24.31279416308559</v>
       </c>
       <c r="H4">
-        <v>15.74786791623343</v>
+        <v>9.751395544115928</v>
       </c>
       <c r="I4">
-        <v>25.15172439821565</v>
+        <v>16.12278736810992</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.786700132948081</v>
+        <v>10.43675722512345</v>
       </c>
       <c r="L4">
-        <v>10.16015981619323</v>
+        <v>6.227533690873061</v>
       </c>
       <c r="M4">
-        <v>13.33766270701587</v>
+        <v>8.761025970196144</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.64298669115745</v>
+        <v>15.99173306479071</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.22025858568139</v>
+        <v>11.44621798671439</v>
       </c>
       <c r="C5">
-        <v>9.455704253354872</v>
+        <v>7.747900317481305</v>
       </c>
       <c r="D5">
-        <v>5.780787517703414</v>
+        <v>6.15979554104082</v>
       </c>
       <c r="E5">
-        <v>12.89153778874193</v>
+        <v>7.933816960322507</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.04996256265508</v>
+        <v>24.28991686370122</v>
       </c>
       <c r="H5">
-        <v>15.76159370087677</v>
+        <v>9.773419711946685</v>
       </c>
       <c r="I5">
-        <v>25.17845050126894</v>
+        <v>16.17195368610239</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.734623473486151</v>
+        <v>10.28157871632833</v>
       </c>
       <c r="L5">
-        <v>10.16303370241941</v>
+        <v>6.208809728321167</v>
       </c>
       <c r="M5">
-        <v>13.32871789734759</v>
+        <v>8.67242730110045</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.66642064083018</v>
+        <v>16.0142520882022</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.20909483884275</v>
+        <v>11.40717082395195</v>
       </c>
       <c r="C6">
-        <v>9.454657830331282</v>
+        <v>7.74434628508702</v>
       </c>
       <c r="D6">
-        <v>5.776011921629903</v>
+        <v>6.140989709010258</v>
       </c>
       <c r="E6">
-        <v>12.89310819096544</v>
+        <v>7.935460594727253</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.05513294165553</v>
+        <v>24.2864837445048</v>
       </c>
       <c r="H6">
-        <v>15.76390757902925</v>
+        <v>9.777154433083338</v>
       </c>
       <c r="I6">
-        <v>25.18295325949989</v>
+        <v>16.18026672949995</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.72595528815391</v>
+        <v>10.25556570535361</v>
       </c>
       <c r="L6">
-        <v>10.16353191815374</v>
+        <v>6.205736515293179</v>
       </c>
       <c r="M6">
-        <v>13.32725916151075</v>
+        <v>8.657669579641809</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.67038285533577</v>
+        <v>16.01816605753577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.28646084915843</v>
+        <v>11.67546087021311</v>
       </c>
       <c r="C7">
-        <v>9.461918945454183</v>
+        <v>7.7690053519352</v>
       </c>
       <c r="D7">
-        <v>5.809231624190124</v>
+        <v>6.2706163506331</v>
       </c>
       <c r="E7">
-        <v>12.88236105457409</v>
+        <v>7.924379503466889</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.02006761729174</v>
+        <v>24.31246098752165</v>
       </c>
       <c r="H7">
-        <v>15.74805069939785</v>
+        <v>9.751687341051046</v>
       </c>
       <c r="I7">
-        <v>25.15208048434005</v>
+        <v>16.12344039857604</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.785999258447772</v>
+        <v>10.43468097315467</v>
       </c>
       <c r="L7">
-        <v>10.16019716632636</v>
+        <v>6.227278772878497</v>
       </c>
       <c r="M7">
-        <v>13.33754029866327</v>
+        <v>8.759834268760972</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.64329796731559</v>
+        <v>15.99202498097163</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.62414073763918</v>
+        <v>12.79168326748797</v>
       </c>
       <c r="C8">
-        <v>9.493895041430257</v>
+        <v>7.877519791020244</v>
       </c>
       <c r="D8">
-        <v>5.95728764430841</v>
+        <v>6.899397845347583</v>
       </c>
       <c r="E8">
-        <v>12.83872424648675</v>
+        <v>7.883733372348456</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>33.88574524791883</v>
+        <v>24.48163123321184</v>
       </c>
       <c r="H8">
-        <v>15.68312329369101</v>
+        <v>9.650865054149186</v>
       </c>
       <c r="I8">
-        <v>25.02528114733049</v>
+        <v>15.89494020129427</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.047405245199259</v>
+        <v>11.18870706913988</v>
       </c>
       <c r="L8">
-        <v>10.14853174449693</v>
+        <v>6.327490091955042</v>
       </c>
       <c r="M8">
-        <v>13.38672358105632</v>
+        <v>9.20305678271175</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.53411164542691</v>
+        <v>15.90284460072722</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.26683569241673</v>
+        <v>14.73889120512425</v>
       </c>
       <c r="C9">
-        <v>9.556259359539879</v>
+        <v>8.088707922275368</v>
       </c>
       <c r="D9">
-        <v>6.249963555851145</v>
+        <v>8.015461129027463</v>
       </c>
       <c r="E9">
-        <v>12.76674512083656</v>
+        <v>7.835129704351418</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>33.69618503312819</v>
+        <v>25.0214542067077</v>
       </c>
       <c r="H9">
-        <v>15.57392067024147</v>
+        <v>9.497508054997926</v>
       </c>
       <c r="I9">
-        <v>24.81054603744043</v>
+        <v>15.53310980559287</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.542636793309521</v>
+        <v>12.53190234126323</v>
       </c>
       <c r="L9">
-        <v>10.13657947723817</v>
+        <v>6.541796534075477</v>
       </c>
       <c r="M9">
-        <v>13.4964462124835</v>
+        <v>10.03711854308099</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.35722545839207</v>
+        <v>15.82967093249875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.72214722417597</v>
+        <v>16.02404117100941</v>
       </c>
       <c r="C10">
-        <v>9.601778924946929</v>
+        <v>8.242457783275347</v>
       </c>
       <c r="D10">
-        <v>6.463893772967144</v>
+        <v>8.755441947873077</v>
       </c>
       <c r="E10">
-        <v>12.72212788165073</v>
+        <v>7.819742373435908</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>33.60232375869845</v>
+        <v>25.55431011145033</v>
       </c>
       <c r="H10">
-        <v>15.5047219564316</v>
+        <v>9.414679164122891</v>
       </c>
       <c r="I10">
-        <v>24.67346170165577</v>
+        <v>15.32620104755956</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.892154333367783</v>
+        <v>13.4334079237854</v>
       </c>
       <c r="L10">
-        <v>10.13441882671696</v>
+        <v>6.709384399135455</v>
       </c>
       <c r="M10">
-        <v>13.58473485060826</v>
+        <v>10.66991928263576</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.25003987080702</v>
+        <v>15.84504216471986</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.92467332311905</v>
+        <v>16.57757567508922</v>
       </c>
       <c r="C11">
-        <v>9.622402155191653</v>
+        <v>8.312014883886647</v>
       </c>
       <c r="D11">
-        <v>6.560473236086461</v>
+        <v>9.0751146835124</v>
       </c>
       <c r="E11">
-        <v>12.70362070262339</v>
+        <v>7.817454074588722</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>33.56955380461488</v>
+        <v>25.82793387517406</v>
       </c>
       <c r="H11">
-        <v>15.47563443187629</v>
+        <v>9.384133124259668</v>
       </c>
       <c r="I11">
-        <v>24.6155907008053</v>
+        <v>15.24637976088976</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.047347617411287</v>
+        <v>13.82466273103931</v>
       </c>
       <c r="L11">
-        <v>10.13486382090444</v>
+        <v>6.787665896606762</v>
       </c>
       <c r="M11">
-        <v>13.62647075606706</v>
+        <v>11.01004275151483</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.20623893574522</v>
+        <v>15.86858885805094</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.00063298514309</v>
+        <v>16.7827556450362</v>
       </c>
       <c r="C12">
-        <v>9.630197821203113</v>
+        <v>8.338292768022391</v>
       </c>
       <c r="D12">
-        <v>6.596899751029496</v>
+        <v>9.193762924764457</v>
       </c>
       <c r="E12">
-        <v>12.69686947506925</v>
+        <v>7.817290077017609</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>33.55857684787498</v>
+        <v>25.93614573932208</v>
       </c>
       <c r="H12">
-        <v>15.46496343902323</v>
+        <v>9.37364968992528</v>
       </c>
       <c r="I12">
-        <v>24.59432228997646</v>
+        <v>15.21834559841504</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.105516059726796</v>
+        <v>13.97009560306883</v>
       </c>
       <c r="L12">
-        <v>10.13523668793862</v>
+        <v>6.817589452568494</v>
       </c>
       <c r="M12">
-        <v>13.64249266423032</v>
+        <v>11.1363433327424</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.19036690458671</v>
+        <v>15.88001262094239</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.98430736991542</v>
+        <v>16.73876291878659</v>
       </c>
       <c r="C13">
-        <v>9.628519532957098</v>
+        <v>8.33263620544459</v>
       </c>
       <c r="D13">
-        <v>6.589061755265938</v>
+        <v>9.168316337304571</v>
       </c>
       <c r="E13">
-        <v>12.69831204535349</v>
+        <v>7.817293749369829</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>33.56087716317725</v>
+        <v>25.91263443070723</v>
       </c>
       <c r="H13">
-        <v>15.46724633743656</v>
+        <v>9.375858334219505</v>
       </c>
       <c r="I13">
-        <v>24.59887407969504</v>
+        <v>15.22428350021075</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.093015919074009</v>
+        <v>13.93889548968292</v>
       </c>
       <c r="L13">
-        <v>10.13514731182259</v>
+        <v>6.811132643336486</v>
       </c>
       <c r="M13">
-        <v>13.63903253196421</v>
+        <v>11.10925312652709</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.19375343385417</v>
+        <v>15.8774387917407</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.93093764064093</v>
+        <v>16.59454453891582</v>
       </c>
       <c r="C14">
-        <v>9.623043798599799</v>
+        <v>8.314178056781534</v>
       </c>
       <c r="D14">
-        <v>6.56347321455568</v>
+        <v>9.084923955124466</v>
       </c>
       <c r="E14">
-        <v>12.70306012524257</v>
+        <v>7.817426358048212</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>33.56862199404774</v>
+        <v>25.83674385974576</v>
       </c>
       <c r="H14">
-        <v>15.4747496324399</v>
+        <v>9.38324858487727</v>
       </c>
       <c r="I14">
-        <v>24.61382798437837</v>
+        <v>15.24402862758796</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.05214547963929</v>
+        <v>13.83668229806333</v>
       </c>
       <c r="L14">
-        <v>10.13489040712152</v>
+        <v>6.79012219194227</v>
       </c>
       <c r="M14">
-        <v>13.62778458170696</v>
+        <v>11.02048355884529</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.20491880794664</v>
+        <v>15.86947772719466</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.89814971657659</v>
+        <v>16.50563069069219</v>
       </c>
       <c r="C15">
-        <v>9.619687887498548</v>
+        <v>8.302863664816662</v>
       </c>
       <c r="D15">
-        <v>6.547779331500187</v>
+        <v>9.033531499216343</v>
       </c>
       <c r="E15">
-        <v>12.70600192698167</v>
+        <v>7.817599823719975</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>33.57355258168372</v>
+        <v>25.79086016396996</v>
       </c>
       <c r="H15">
-        <v>15.47939039162454</v>
+        <v>9.387918224126116</v>
       </c>
       <c r="I15">
-        <v>24.62307183734192</v>
+        <v>15.25641277405787</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.027031540151253</v>
+        <v>13.77371829320153</v>
       </c>
       <c r="L15">
-        <v>10.13475962874624</v>
+        <v>6.777288744636905</v>
       </c>
       <c r="M15">
-        <v>13.62092293799342</v>
+        <v>10.96578476832215</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.21185100346289</v>
+        <v>15.86493160073913</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.70881291125839</v>
+        <v>15.98724409710279</v>
       </c>
       <c r="C16">
-        <v>9.600429303583565</v>
+        <v>8.237903747951185</v>
       </c>
       <c r="D16">
-        <v>6.457563763239273</v>
+        <v>8.734212276494368</v>
       </c>
       <c r="E16">
-        <v>12.72337335364038</v>
+        <v>7.819988857567139</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>33.60466554673752</v>
+        <v>25.53706595917643</v>
       </c>
       <c r="H16">
-        <v>15.50667100990107</v>
+        <v>9.416823845223069</v>
       </c>
       <c r="I16">
-        <v>24.67733408870834</v>
+        <v>15.33171677875173</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.881930917909271</v>
+        <v>13.40745764993704</v>
       </c>
       <c r="L16">
-        <v>10.1344183968669</v>
+        <v>6.704308464601123</v>
       </c>
       <c r="M16">
-        <v>13.58203822025929</v>
+        <v>10.64734153174311</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.25300226299565</v>
+        <v>15.84384728263714</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.59143067926069</v>
+        <v>15.6612954105861</v>
       </c>
       <c r="C17">
-        <v>9.58859200126277</v>
+        <v>8.197949573132618</v>
       </c>
       <c r="D17">
-        <v>6.402001270673526</v>
+        <v>8.546271433184611</v>
       </c>
       <c r="E17">
-        <v>12.73448828178788</v>
+        <v>7.822678871383633</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>33.62629871731468</v>
+        <v>25.38944998361344</v>
       </c>
       <c r="H17">
-        <v>15.52401922498223</v>
+        <v>9.436423809184534</v>
       </c>
       <c r="I17">
-        <v>24.7117724151039</v>
+        <v>15.38167059244982</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.791903031297062</v>
+        <v>13.17792717798822</v>
       </c>
       <c r="L17">
-        <v>10.13457411279271</v>
+        <v>6.660051137607346</v>
       </c>
       <c r="M17">
-        <v>13.55858043247896</v>
+        <v>10.45496911619006</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.27951821361841</v>
+        <v>15.8352428985456</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.52348669125588</v>
+        <v>15.47088984555428</v>
       </c>
       <c r="C18">
-        <v>9.581775717221415</v>
+        <v>8.17493315530899</v>
       </c>
       <c r="D18">
-        <v>6.369975938312216</v>
+        <v>8.436575598694112</v>
       </c>
       <c r="E18">
-        <v>12.74104974105211</v>
+        <v>7.824668044118052</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>33.63967578447289</v>
+        <v>25.30747898195109</v>
       </c>
       <c r="H18">
-        <v>15.53422254418245</v>
+        <v>9.448364960537004</v>
       </c>
       <c r="I18">
-        <v>24.73200295627091</v>
+        <v>15.41174030881078</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.739766192821076</v>
+        <v>13.04413400207856</v>
       </c>
       <c r="L18">
-        <v>10.13479813896405</v>
+        <v>6.634788804057272</v>
       </c>
       <c r="M18">
-        <v>13.54523673067968</v>
+        <v>10.36764905614789</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.29523610676557</v>
+        <v>15.83184448022584</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.50041064648918</v>
+        <v>15.40591768178974</v>
       </c>
       <c r="C19">
-        <v>9.57946656023012</v>
+        <v>8.167134248796655</v>
       </c>
       <c r="D19">
-        <v>6.359122408797297</v>
+        <v>8.399159180198074</v>
       </c>
       <c r="E19">
-        <v>12.74330027758192</v>
+        <v>7.825416691881756</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>33.64436533098557</v>
+        <v>25.28022537319641</v>
       </c>
       <c r="H19">
-        <v>15.53771587275448</v>
+        <v>9.452521001348057</v>
       </c>
       <c r="I19">
-        <v>24.73892522382552</v>
+        <v>15.42214712913081</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.722054238060093</v>
+        <v>12.99853002270686</v>
       </c>
       <c r="L19">
-        <v>10.13489711268802</v>
+        <v>6.626269044402042</v>
       </c>
       <c r="M19">
-        <v>13.54074456669628</v>
+        <v>10.33797615691861</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.30063801300617</v>
+        <v>15.83095628538491</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.60397113728186</v>
+        <v>15.69629602097601</v>
       </c>
       <c r="C20">
-        <v>9.589852920923876</v>
+        <v>8.20220652168975</v>
       </c>
       <c r="D20">
-        <v>6.407923249085143</v>
+        <v>8.566443133560364</v>
       </c>
       <c r="E20">
-        <v>12.73328764710895</v>
+        <v>7.822346594707668</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>33.6238991027281</v>
+        <v>25.40485949470446</v>
       </c>
       <c r="H20">
-        <v>15.52214918279021</v>
+        <v>9.434267837399329</v>
       </c>
       <c r="I20">
-        <v>24.70806266284489</v>
+        <v>15.37621352930984</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.8015238105819</v>
+        <v>13.20254477070362</v>
       </c>
       <c r="L20">
-        <v>10.13454362698016</v>
+        <v>6.66474250115085</v>
       </c>
       <c r="M20">
-        <v>13.56106223737278</v>
+        <v>10.47107835324785</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.27664724143407</v>
+        <v>15.83599745040982</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.94663404619573</v>
+        <v>16.63702492301167</v>
       </c>
       <c r="C21">
-        <v>9.624652546637989</v>
+        <v>8.319601391105746</v>
       </c>
       <c r="D21">
-        <v>6.570993459220969</v>
+        <v>9.109483325399632</v>
       </c>
       <c r="E21">
-        <v>12.70165852537163</v>
+        <v>7.817368139995152</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>33.56630824347764</v>
+        <v>25.85890924745112</v>
       </c>
       <c r="H21">
-        <v>15.47253640196326</v>
+        <v>9.381048001974724</v>
       </c>
       <c r="I21">
-        <v>24.6094181213997</v>
+        <v>15.2381683811668</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.0641667982178</v>
+        <v>13.86677888913556</v>
       </c>
       <c r="L21">
-        <v>10.13496032819704</v>
+        <v>6.796285980252375</v>
       </c>
       <c r="M21">
-        <v>13.63108254764946</v>
+        <v>11.04662501560732</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.20161986636775</v>
+        <v>15.87174703461222</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.16628502105826</v>
+        <v>17.226034932866</v>
       </c>
       <c r="C22">
-        <v>9.647314206765445</v>
+        <v>8.395962472819281</v>
       </c>
       <c r="D22">
-        <v>6.676701163745363</v>
+        <v>9.450389630793026</v>
       </c>
       <c r="E22">
-        <v>12.68248515252204</v>
+        <v>7.818221179615119</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>33.53701952347284</v>
+        <v>26.18248680019802</v>
       </c>
       <c r="H22">
-        <v>15.44211561584381</v>
+        <v>9.352611285768532</v>
       </c>
       <c r="I22">
-        <v>24.54871432119487</v>
+        <v>15.16079580405531</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.232301202636052</v>
+        <v>14.284998087344</v>
       </c>
       <c r="L22">
-        <v>10.13642331017281</v>
+        <v>6.883883407862104</v>
       </c>
       <c r="M22">
-        <v>13.67810794413598</v>
+        <v>11.40960881395852</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.15675001298257</v>
+        <v>15.90978333182753</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.04946862384286</v>
+        <v>16.91401747540531</v>
       </c>
       <c r="C23">
-        <v>9.635227360106033</v>
+        <v>8.355242364530151</v>
       </c>
       <c r="D23">
-        <v>6.620374998583327</v>
+        <v>9.26971178295336</v>
       </c>
       <c r="E23">
-        <v>12.69258136188</v>
+        <v>7.817381770579838</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>33.55188607418929</v>
+        <v>26.00730151244152</v>
       </c>
       <c r="H23">
-        <v>15.45816840759243</v>
+        <v>9.367187981582523</v>
       </c>
       <c r="I23">
-        <v>24.58076830625209</v>
+        <v>15.20086846283278</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.142902911767301</v>
+        <v>14.06324461085334</v>
       </c>
       <c r="L23">
-        <v>10.13553388684621</v>
+        <v>6.836986744967991</v>
       </c>
       <c r="M23">
-        <v>13.6528969978868</v>
+        <v>11.21720504086392</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.18031635701557</v>
+        <v>15.88809846071094</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.5983030215836</v>
+        <v>15.68048163374915</v>
       </c>
       <c r="C24">
-        <v>9.58928289284172</v>
+        <v>8.200282098735922</v>
       </c>
       <c r="D24">
-        <v>6.405246174126815</v>
+        <v>8.557328637609022</v>
       </c>
       <c r="E24">
-        <v>12.73382992032782</v>
+        <v>7.822495440134117</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>33.6249810412165</v>
+        <v>25.39788384449595</v>
       </c>
       <c r="H24">
-        <v>15.52299391366859</v>
+        <v>9.435240460751652</v>
       </c>
       <c r="I24">
-        <v>24.70973849781391</v>
+        <v>15.3786764709051</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.797175431481442</v>
+        <v>13.19142086519645</v>
       </c>
       <c r="L24">
-        <v>10.13455699058396</v>
+        <v>6.66262096837889</v>
       </c>
       <c r="M24">
-        <v>13.55993976886982</v>
+        <v>10.46379747938652</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.27794373307689</v>
+        <v>15.83565150432865</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.09559397678425</v>
+        <v>14.23781448895816</v>
       </c>
       <c r="C25">
-        <v>9.539434035611546</v>
+        <v>8.03179397068604</v>
       </c>
       <c r="D25">
-        <v>6.170802727565141</v>
+        <v>7.727718089883989</v>
       </c>
       <c r="E25">
-        <v>12.78476430059899</v>
+        <v>7.844809336778747</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>33.73951749984511</v>
+        <v>24.85210085916925</v>
       </c>
       <c r="H25">
-        <v>15.60152447273358</v>
+        <v>9.533966829776512</v>
       </c>
       <c r="I25">
-        <v>24.86500606859686</v>
+        <v>15.62113167418103</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.410927142508241</v>
+        <v>12.18336953183503</v>
       </c>
       <c r="L25">
-        <v>10.13864712299851</v>
+        <v>6.481987014585434</v>
       </c>
       <c r="M25">
-        <v>13.46538391806804</v>
+        <v>9.815880028459164</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.40108414001183</v>
+        <v>15.83784561099812</v>
       </c>
     </row>
   </sheetData>
